--- a/shipping card.xlsx
+++ b/shipping card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okrasotskyi\Desktop\Banana report (server)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2786B69A-9469-4E5E-89A2-F475F78FE7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A6FCF9-C255-409B-8A27-175DEDE00917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,7 +797,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -811,12 +811,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -828,9 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,6 +834,36 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -963,35 +984,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -1137,7 +1138,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17145</xdr:colOff>
+      <xdr:colOff>96520</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
@@ -1494,329 +1495,311 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="10.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="66"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C2" s="8"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="67"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="G4" s="64"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="F11" s="37" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="F11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" thickBot="1"/>
     <row r="19" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="47"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="54"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B23" s="10"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
+      <c r="B23" s="8"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="13" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="14" t="s">
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="B34" s="15"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="16"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="F43" s="10"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="16"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="17"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="14"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:G32"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
@@ -1833,9 +1816,27 @@
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="A15:C16"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.19685039370078741" bottom="0.74803149606299213" header="0.15748031496062992" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>